--- a/outputs-HGR-r202/o__ML615J-28.xlsx
+++ b/outputs-HGR-r202/o__ML615J-28.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2256_1.fa</t>
+          <t>even_MAG-GUT27437.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2256_2.fa</t>
+          <t>even_MAG-GUT27453.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27437.fa</t>
+          <t>even_MAG-GUT66098.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27437_1.fa</t>
+          <t>even_MAG-GUT66111.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,7 +579,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27437_2.fa</t>
+          <t>even_MAG-GUT70414.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27453.fa</t>
+          <t>even_MAG-GUT71084.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -617,328 +617,6 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT27453_1.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT27453_2.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66098.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66098_1.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66098_2.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66111.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66111_1.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66111_2.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70414.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70414_1.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70414_2.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71084.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71084_1.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71084_2.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>

--- a/outputs-HGR-r202/o__ML615J-28.xlsx
+++ b/outputs-HGR-r202/o__ML615J-28.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>f__CAG-313</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -577,6 +612,11 @@
         <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>

--- a/outputs-HGR-r202/o__ML615J-28.xlsx
+++ b/outputs-HGR-r202/o__ML615J-28.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>2673.302126080028</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>2003.706563849601</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>2027.092126810354</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>2147.939955225212</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>1920.15760054469</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>1783.420104854294</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
@@ -606,17 +583,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>1978.927328704527</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__CAG-313</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>f__CAG-313</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>f__CAG-313</t>
         </is>
